--- a/Lab4_Handouts_20200504_161045/微指令表_office2016以下.xlsx
+++ b/Lab4_Handouts_20200504_161045/微指令表_office2016以下.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="11520" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,8 +202,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -232,6 +232,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -239,30 +246,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,16 +268,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,29 +330,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,26 +368,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -426,13 +426,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,13 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,25 +510,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,67 +558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,6 +798,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -805,15 +844,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,17 +872,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,30 +895,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -903,145 +903,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,11 +1499,11 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/Lab4_Handouts_20200504_161045/微指令表_office2016以下.xlsx
+++ b/Lab4_Handouts_20200504_161045/微指令表_office2016以下.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155"/>
+    <workbookView windowWidth="21216" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
   <si>
     <t>十进制地址</t>
   </si>
@@ -187,6 +187,9 @@
     <t>JUMPZ IMM</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>JUMPNZ IMM</t>
   </si>
   <si>
@@ -194,6 +197,33 @@
   </si>
   <si>
     <t>空</t>
+  </si>
+  <si>
+    <t>LOADSP IMM</t>
+  </si>
+  <si>
+    <t>SP&lt;-MDR</t>
+  </si>
+  <si>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>MDR&lt;-R</t>
+  </si>
+  <si>
+    <t>PC&lt;-PC+1, MAR&lt;-SP,MemWrite&lt;-1</t>
+  </si>
+  <si>
+    <t>SP&lt;-SP-1</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>SP&lt;-SP+1,MAR&lt;-SP,MemRead&lt;-1</t>
+  </si>
+  <si>
+    <t>PC&lt;-PC+1, MDR&lt;-M[MAR],</t>
   </si>
 </sst>
 </file>
@@ -202,8 +232,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -238,41 +268,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,13 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,9 +314,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,22 +368,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,21 +391,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +462,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +492,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,133 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,26 +849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,30 +864,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -895,6 +892,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -903,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,10 +951,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,7 +963,7 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,116 +972,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,28 +1160,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,11 +1553,11 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1595,22 +1649,22 @@
       <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1685,19 +1739,19 @@
       <c r="W2" s="21">
         <v>0</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="27" t="s">
+      <c r="Z2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="32" t="str">
+      <c r="AB2" s="38" t="str">
         <f>E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;U2&amp;V2&amp;W2&amp;X2&amp;Y2&amp;Z2&amp;AA2</f>
         <v>00001000010000000010000000000000</v>
       </c>
@@ -1775,19 +1829,19 @@
       <c r="W3" s="8">
         <v>0</v>
       </c>
-      <c r="X3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="33" t="s">
+      <c r="X3" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="32" t="str">
+      <c r="AB3" s="38" t="str">
         <f>E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3</f>
         <v>00100100000000110000000000000000</v>
       </c>
@@ -1865,19 +1919,19 @@
       <c r="W4" s="8">
         <v>0</v>
       </c>
-      <c r="X4" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="33" t="s">
+      <c r="X4" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="32" t="str">
+      <c r="AB4" s="38" t="str">
         <f>E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4</f>
         <v>00010000001000000000000000000000</v>
       </c>
@@ -1955,19 +2009,19 @@
       <c r="W5" s="8">
         <v>0</v>
       </c>
-      <c r="X5" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="33" t="s">
+      <c r="X5" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="33" t="s">
+      <c r="AA5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB5" s="32" t="str">
+      <c r="AB5" s="38" t="str">
         <f>E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5</f>
         <v>00000000000000000000001000000000</v>
       </c>
@@ -2047,19 +2101,19 @@
       <c r="W6" s="8">
         <v>0</v>
       </c>
-      <c r="X6" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA6" s="33" t="s">
+      <c r="X6" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="32" t="str">
+      <c r="AB6" s="38" t="str">
         <f t="shared" ref="AB3:AB41" si="2">E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6&amp;U6&amp;V6&amp;W6&amp;X6&amp;Y6&amp;Z6&amp;AA6</f>
         <v>00001000010000000010000000000000</v>
       </c>
@@ -2137,19 +2191,19 @@
       <c r="W7" s="8">
         <v>0</v>
       </c>
-      <c r="X7" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA7" s="33" t="s">
+      <c r="X7" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB7" s="32" t="str">
+      <c r="AB7" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100100000000110000000000000000</v>
       </c>
@@ -2227,19 +2281,19 @@
       <c r="W8" s="8">
         <v>0</v>
       </c>
-      <c r="X8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="33" t="s">
+      <c r="X8" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA8" s="33" t="s">
+      <c r="AA8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB8" s="32" t="str">
+      <c r="AB8" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000000101000000000000100000000</v>
       </c>
@@ -2319,19 +2373,19 @@
       <c r="W9" s="8">
         <v>0</v>
       </c>
-      <c r="X9" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA9" s="33" t="s">
+      <c r="X9" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="32" t="str">
+      <c r="AB9" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00001000010000000010000000000000</v>
       </c>
@@ -2409,19 +2463,19 @@
       <c r="W10" s="8">
         <v>0</v>
       </c>
-      <c r="X10" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA10" s="33" t="s">
+      <c r="X10" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB10" s="32" t="str">
+      <c r="AB10" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100100000000110000000000000000</v>
       </c>
@@ -2499,19 +2553,19 @@
       <c r="W11" s="8">
         <v>0</v>
       </c>
-      <c r="X11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA11" s="33" t="s">
+      <c r="X11" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="32" t="str">
+      <c r="AB11" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00001000001000000010000000000000</v>
       </c>
@@ -2589,19 +2643,19 @@
       <c r="W12" s="8">
         <v>0</v>
       </c>
-      <c r="X12" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA12" s="33" t="s">
+      <c r="X12" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB12" s="32" t="str">
+      <c r="AB12" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000100000000010000000000000000</v>
       </c>
@@ -2679,19 +2733,19 @@
       <c r="W13" s="8">
         <v>0</v>
       </c>
-      <c r="X13" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="33" t="s">
+      <c r="X13" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA13" s="33" t="s">
+      <c r="AA13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB13" s="32" t="str">
+      <c r="AB13" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000010001000000000000100000000</v>
       </c>
@@ -2771,19 +2825,19 @@
       <c r="W14" s="8">
         <v>0</v>
       </c>
-      <c r="X14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA14" s="33" t="s">
+      <c r="X14" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB14" s="32" t="str">
+      <c r="AB14" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00001000010000000010000000000000</v>
       </c>
@@ -2861,19 +2915,19 @@
       <c r="W15" s="8">
         <v>0</v>
       </c>
-      <c r="X15" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA15" s="33" t="s">
+      <c r="X15" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB15" s="32" t="str">
+      <c r="AB15" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100100000000110000000000000000</v>
       </c>
@@ -2951,19 +3005,19 @@
       <c r="W16" s="8">
         <v>0</v>
       </c>
-      <c r="X16" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA16" s="33" t="s">
+      <c r="X16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA16" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB16" s="32" t="str">
+      <c r="AB16" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00001000001000000000000000000000</v>
       </c>
@@ -3041,19 +3095,19 @@
       <c r="W17" s="8">
         <v>1</v>
       </c>
-      <c r="X17" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="33" t="s">
+      <c r="X17" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA17" s="33" t="s">
+      <c r="AA17" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB17" s="32" t="str">
+      <c r="AB17" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000100000100000001000100000000</v>
       </c>
@@ -3133,19 +3187,19 @@
       <c r="W18" s="8">
         <v>0</v>
       </c>
-      <c r="X18" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="33" t="s">
+      <c r="X18" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA18" s="33" t="s">
+      <c r="AA18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB18" s="32" t="str">
+      <c r="AB18" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000000100100000000000100000000</v>
       </c>
@@ -3225,19 +3279,19 @@
       <c r="W19" s="8">
         <v>0</v>
       </c>
-      <c r="X19" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="33" t="s">
+      <c r="X19" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA19" s="33" t="s">
+      <c r="AA19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB19" s="32" t="str">
+      <c r="AB19" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000010000001001100000100000000</v>
       </c>
@@ -3317,19 +3371,19 @@
       <c r="W20" s="8">
         <v>0</v>
       </c>
-      <c r="X20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="33" t="s">
+      <c r="X20" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB20" s="32" t="str">
+      <c r="AB20" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000010000001001000000100000000</v>
       </c>
@@ -3409,19 +3463,19 @@
       <c r="W21" s="8">
         <v>0</v>
       </c>
-      <c r="X21" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA21" s="33" t="s">
+      <c r="X21" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB21" s="32" t="str">
+      <c r="AB21" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00001000010000000010000000000000</v>
       </c>
@@ -3499,19 +3553,19 @@
       <c r="W22" s="8">
         <v>0</v>
       </c>
-      <c r="X22" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA22" s="33" t="s">
+      <c r="X22" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB22" s="32" t="str">
+      <c r="AB22" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100100000000110000000000000000</v>
       </c>
@@ -3589,19 +3643,19 @@
       <c r="W23" s="8">
         <v>0</v>
       </c>
-      <c r="X23" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="33" t="s">
+      <c r="X23" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA23" s="33" t="s">
+      <c r="AA23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB23" s="32" t="str">
+      <c r="AB23" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100000001000000000000100000000</v>
       </c>
@@ -3681,19 +3735,19 @@
       <c r="W24" s="8">
         <v>0</v>
       </c>
-      <c r="X24" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA24" s="33" t="s">
+      <c r="X24" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB24" s="32" t="str">
+      <c r="AB24" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00001000010000000010000000000000</v>
       </c>
@@ -3712,7 +3766,7 @@
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>31</v>
@@ -3771,19 +3825,19 @@
       <c r="W25" s="8">
         <v>0</v>
       </c>
-      <c r="X25" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA25" s="33" t="s">
+      <c r="X25" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB25" s="32" t="str">
+      <c r="AB25" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100100000000110000100000000000</v>
       </c>
@@ -3861,19 +3915,19 @@
       <c r="W26" s="8">
         <v>0</v>
       </c>
-      <c r="X26" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="33" t="s">
+      <c r="X26" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="33" t="s">
+      <c r="AA26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB26" s="32" t="str">
+      <c r="AB26" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100000001000000000000100000000</v>
       </c>
@@ -3891,7 +3945,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>30</v>
@@ -3953,19 +4007,19 @@
       <c r="W27" s="8">
         <v>0</v>
       </c>
-      <c r="X27" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA27" s="33" t="s">
+      <c r="X27" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB27" s="32" t="str">
+      <c r="AB27" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00001000010000000010000000000000</v>
       </c>
@@ -4043,19 +4097,19 @@
       <c r="W28" s="8">
         <v>0</v>
       </c>
-      <c r="X28" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA28" s="33" t="s">
+      <c r="X28" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB28" s="32" t="str">
+      <c r="AB28" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100100000000110000110000000000</v>
       </c>
@@ -4133,19 +4187,19 @@
       <c r="W29" s="8">
         <v>0</v>
       </c>
-      <c r="X29" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="33" t="s">
+      <c r="X29" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA29" s="33" t="s">
+      <c r="AA29" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB29" s="32" t="str">
+      <c r="AB29" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00100000001000000000000100000000</v>
       </c>
@@ -4163,10 +4217,10 @@
         <v>1C</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>31</v>
@@ -4225,19 +4279,19 @@
       <c r="W30" s="8">
         <v>0</v>
       </c>
-      <c r="X30" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="33" t="s">
+      <c r="X30" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA30" s="33" t="s">
+      <c r="AA30" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB30" s="32" t="str">
+      <c r="AB30" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00000000000000000000000100000000</v>
       </c>
@@ -4247,141 +4301,479 @@
       </c>
     </row>
     <row r="31" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A31" s="3">
+      <c r="A31" s="26">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
+      <c r="C31" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="E31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="32" t="str">
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>1</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA31" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB31" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>00001000010000000010000000000000</v>
       </c>
       <c r="AC31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>不完整</v>
+        <v>完整</v>
       </c>
     </row>
     <row r="32" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A32" s="3">
+      <c r="A32" s="26">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="E32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="32" t="str">
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>1</v>
+      </c>
+      <c r="S32" s="8">
+        <v>1</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA32" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB32" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>00100100000000110000000000000000</v>
       </c>
       <c r="AC32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>不完整</v>
+        <v>完整</v>
       </c>
     </row>
     <row r="33" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="str">
+      <c r="A33" s="26">
+        <v>31</v>
+      </c>
+      <c r="B33" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="E33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="32" t="str">
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB33" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>00000001001000000000000100000000</v>
       </c>
       <c r="AC33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>不完整</v>
+        <v>完整</v>
       </c>
     </row>
     <row r="34" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A34" s="3">
+      <c r="A34" s="26">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" s="27" t="str">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="C34" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="E34" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="32" t="str">
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>1</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA34" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB34" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>00000100000001000000000000000000</v>
       </c>
       <c r="AC34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>不完整</v>
+        <v>完整</v>
       </c>
     </row>
     <row r="35" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A35" s="3">
+      <c r="A35" s="26">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="27" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="E35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="32" t="str">
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>1</v>
+      </c>
+      <c r="X35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA35" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB35" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>00001000000010000001000000000000</v>
       </c>
       <c r="AC35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>不完整</v>
+        <v>完整</v>
       </c>
     </row>
     <row r="36" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A36" s="3">
+      <c r="A36" s="26">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="27" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="E36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="32" t="str">
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
@@ -4391,21 +4783,27 @@
       </c>
     </row>
     <row r="37" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A37" s="3">
+      <c r="A37" s="26">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="C37" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="E37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="32" t="str">
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
@@ -4415,23 +4813,36 @@
       </c>
     </row>
     <row r="38" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A38" s="3">
+      <c r="A38" s="26">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="27" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="E38" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="32" t="str">
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1</v>
+      </c>
+      <c r="V38" s="8">
+        <v>1</v>
+      </c>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>00111</v>
       </c>
       <c r="AC38" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4439,23 +4850,33 @@
       </c>
     </row>
     <row r="39" ht="16.55" customHeight="1" spans="1:29">
-      <c r="A39" s="3">
+      <c r="A39" s="26">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" s="27" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="E39" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="32" t="str">
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="V39" s="8">
+        <v>1</v>
+      </c>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>0011</v>
       </c>
       <c r="AC39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4473,11 +4894,11 @@
       <c r="E40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="32" t="str">
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="38" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
@@ -4487,11 +4908,11 @@
       </c>
     </row>
     <row r="41" spans="24:29">
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="32" t="str">
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4501,7 +4922,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C13"/>
@@ -4509,6 +4930,9 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <conditionalFormatting sqref="F26:W26">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
